--- a/output/CodeSystem-SPLASCHObservationCategory.xlsx
+++ b/output/CodeSystem-SPLASCHObservationCategory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T16:16:20-05:00</t>
+    <t>2021-11-24T17:18:22-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-SPLASCHObservationCategory.xlsx
+++ b/output/CodeSystem-SPLASCHObservationCategory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T17:18:22-05:00</t>
+    <t>2021-11-30T03:26:11-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
